--- a/Example/in/test.xlsx
+++ b/Example/in/test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1190" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="2580" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>bool b</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,12 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"1": 1, "2": 0, "3": 2}</t>
-  </si>
-  <si>
-    <t>{"1": 1, "2": 0, "3": 3}</t>
-  </si>
-  <si>
     <t>{"1": 1, "2": 2, "3": 3}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,13 +181,17 @@
   </si>
   <si>
     <t>&lt;&lt;bool b, float n, str s&gt; t&gt; t_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1": 1, "2": 0, "3": 1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,26 +539,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="33.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="60.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -569,7 +567,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -578,7 +576,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -587,54 +585,54 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -645,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -660,10 +658,10 @@
         <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>14</v>
@@ -678,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -704,13 +702,13 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>15</v>
@@ -725,10 +723,10 @@
         <v>17</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -751,13 +749,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>15</v>
@@ -772,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +786,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -801,7 +799,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
